--- a/data/trans_orig/P36B02_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_2023-Provincia-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,52%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>89,91%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>35,72%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>46,06%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>91,08%</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,02%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,31%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>77,72%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>88,29%</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>84,27%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>32,07%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>53,14%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>60,47%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,49%</t>
         </is>
       </c>
     </row>
